--- a/z_storage/LevelStorage.xlsx
+++ b/z_storage/LevelStorage.xlsx
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="168" uniqueCount="8">
-  <si>
-    <t>Parameter</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="126" uniqueCount="6">
   <si>
     <t>numcs</t>
   </si>
@@ -45,10 +42,7 @@
     <t>Nocs</t>
   </si>
   <si>
-    <t>Dtodam</t>
-  </si>
-  <si>
-    <t>Value</t>
+    <t>zb_entrance</t>
   </si>
   <si>
     <t>WaterLevel</t>
@@ -119,42 +113,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
+      <c r="A2" s="0">
+        <v>6</v>
       </c>
       <c r="B2" s="0">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0">
         <v>33</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0">
-        <v>0</v>
+      <c r="C2" s="0">
+        <v>221.28999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -432,42 +416,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
+      <c r="A2" s="0">
+        <v>2</v>
       </c>
       <c r="B2" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0">
         <v>36</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0">
-        <v>0</v>
+      <c r="C2" s="0">
+        <v>221.81999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -745,42 +719,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
+      <c r="A2" s="0">
+        <v>3</v>
       </c>
       <c r="B2" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0">
         <v>38</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0">
-        <v>0</v>
+      <c r="C2" s="0">
+        <v>220.03</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1058,42 +1022,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
+      <c r="A2" s="0">
+        <v>2</v>
       </c>
       <c r="B2" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0">
         <v>38</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0">
-        <v>0</v>
+      <c r="C2" s="0">
+        <v>222.81999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1371,42 +1325,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
+      <c r="A2" s="0">
+        <v>7</v>
       </c>
       <c r="B2" s="0">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0">
         <v>39</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0">
-        <v>1</v>
+      <c r="C2" s="0">
+        <v>217.68000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1684,42 +1628,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
+      <c r="A2" s="0">
+        <v>5</v>
       </c>
       <c r="B2" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0">
         <v>44</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0">
-        <v>1</v>
+      <c r="C2" s="0">
+        <v>215.47999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1997,42 +1931,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
+      <c r="A2" s="0">
+        <v>2</v>
       </c>
       <c r="B2" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0">
         <v>44</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0">
-        <v>0</v>
+      <c r="C2" s="0">
+        <v>214.24000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2310,42 +2234,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
+      <c r="A2" s="0">
+        <v>11</v>
       </c>
       <c r="B2" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0">
         <v>46</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0">
-        <v>0</v>
+      <c r="C2" s="0">
+        <v>206.81999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2623,42 +2537,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
         <v>4</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
       <c r="B2" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0">
         <v>46</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0">
-        <v>0</v>
+      <c r="C2" s="0">
+        <v>207.05000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2936,42 +2840,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
+      <c r="A2" s="0">
+        <v>2</v>
       </c>
       <c r="B2" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0">
         <v>46</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0">
-        <v>0</v>
+      <c r="C2" s="0">
+        <v>224.74000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -3249,42 +3143,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
+      <c r="A2" s="0">
+        <v>3</v>
       </c>
       <c r="B2" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0">
         <v>20</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0">
-        <v>0</v>
+      <c r="C2" s="0">
+        <v>229.34999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -3562,42 +3446,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
         <v>4</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
       <c r="B2" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0">
         <v>46</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0">
-        <v>0</v>
+      <c r="C2" s="0">
+        <v>207.61000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -3875,42 +3749,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
+      <c r="A2" s="0">
+        <v>2</v>
       </c>
       <c r="B2" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0">
         <v>47</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0">
-        <v>0</v>
+      <c r="C2" s="0">
+        <v>209.96000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -4188,42 +4052,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
+      <c r="A2" s="0">
+        <v>3</v>
       </c>
       <c r="B2" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0">
         <v>49</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0">
-        <v>0</v>
+      <c r="C2" s="0">
+        <v>196.72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -4501,42 +4355,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
+      <c r="A2" s="0">
+        <v>2</v>
       </c>
       <c r="B2" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0">
         <v>21</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0">
-        <v>0</v>
+      <c r="C2" s="0">
+        <v>230.33000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -4814,42 +4658,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
+      <c r="A2" s="0">
+        <v>5</v>
       </c>
       <c r="B2" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="C2" s="0">
+        <v>227.21000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -5127,42 +4961,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
         <v>4</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
       <c r="B2" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0">
         <v>25</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0">
-        <v>0</v>
+      <c r="C2" s="0">
+        <v>227.13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -5440,42 +5264,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
+      <c r="A2" s="0">
+        <v>2</v>
       </c>
       <c r="B2" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0">
         <v>28</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0">
-        <v>0</v>
+      <c r="C2" s="0">
+        <v>224.83000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -5753,42 +5567,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
+      <c r="A2" s="0">
+        <v>2</v>
       </c>
       <c r="B2" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0">
         <v>30</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0">
-        <v>0</v>
+      <c r="C2" s="0">
+        <v>227.53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -6066,42 +5870,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
+      <c r="A2" s="0">
+        <v>3</v>
       </c>
       <c r="B2" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0">
         <v>31</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0">
-        <v>0</v>
+      <c r="C2" s="0">
+        <v>223.13999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -6379,42 +6173,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
+      <c r="A2" s="0">
+        <v>3</v>
       </c>
       <c r="B2" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0">
         <v>32</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0">
-        <v>0</v>
+      <c r="C2" s="0">
+        <v>223.24000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6">
